--- a/code/CNN/Results.xlsx
+++ b/code/CNN/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>Amount of rows</t>
   </si>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,10 +626,10 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -659,21 +659,21 @@
         <v>21560</v>
       </c>
       <c r="L3" s="13">
-        <v>0.67439703153999997</v>
+        <v>0.72031539888700002</v>
       </c>
       <c r="M3" s="14">
-        <v>0.75477239353900005</v>
+        <v>0.74512353706099999</v>
       </c>
       <c r="N3" s="13">
-        <v>0.80535966149500005</v>
+        <v>0.85396383866500003</v>
       </c>
       <c r="O3" s="13">
-        <v>0.48172323759800001</v>
+        <v>0.54790419161699999</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -685,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -706,21 +706,21 @@
         <v>21560</v>
       </c>
       <c r="L4" s="13">
-        <v>0.54870129870100004</v>
+        <v>0.67439703153999997</v>
       </c>
       <c r="M4" s="14">
-        <v>0.87464387464399995</v>
+        <v>0.75477239353900005</v>
       </c>
       <c r="N4" s="13">
-        <v>0.58741258741299995</v>
+        <v>0.80535966149500005</v>
       </c>
       <c r="O4" s="13">
-        <v>0.201623815968</v>
+        <v>0.48172323759800001</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -732,19 +732,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>18</v>
@@ -753,27 +753,27 @@
         <v>21560</v>
       </c>
       <c r="L5" s="13">
-        <v>0.737012987013</v>
+        <v>0.70176252319099997</v>
       </c>
       <c r="M5" s="14">
-        <v>0.61005434782599999</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="N5" s="13">
-        <v>0.89376770538200001</v>
+        <v>0.86011080332400003</v>
       </c>
       <c r="O5" s="13">
-        <v>0.71288515406200004</v>
+        <v>0.41597796143299998</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>18</v>
@@ -800,27 +800,27 @@
         <v>21560</v>
       </c>
       <c r="L6" s="13">
-        <v>0.72124304267200001</v>
+        <v>0.54870129870100004</v>
       </c>
       <c r="M6" s="14">
-        <v>0.63034482758599997</v>
+        <v>0.87464387464399995</v>
       </c>
       <c r="N6" s="13">
-        <v>0.83862068965500003</v>
+        <v>0.58741258741299995</v>
       </c>
       <c r="O6" s="13">
-        <v>0.69405099150100003</v>
+        <v>0.201623815968</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -829,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>18</v>
@@ -847,21 +847,21 @@
         <v>21560</v>
       </c>
       <c r="L7" s="13">
-        <v>0.69480519480500003</v>
+        <v>0.49907235621500001</v>
       </c>
       <c r="M7" s="14">
-        <v>0.71172413793099998</v>
+        <v>0.68495077355800005</v>
       </c>
       <c r="N7" s="13">
-        <v>0.82758620689700002</v>
+        <v>0.686882933709</v>
       </c>
       <c r="O7" s="13">
-        <v>0.54107648725199997</v>
+        <v>0.13858695652200001</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
@@ -882,10 +882,10 @@
         <v>24</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>18</v>
@@ -893,22 +893,22 @@
       <c r="K8">
         <v>21560</v>
       </c>
-      <c r="L8" s="14">
-        <v>0.69526901669800001</v>
+      <c r="L8" s="13">
+        <v>0.737012987013</v>
       </c>
       <c r="M8" s="14">
-        <v>0.79554937413100002</v>
+        <v>0.61005434782599999</v>
       </c>
       <c r="N8" s="13">
-        <v>0.82005494505499998</v>
+        <v>0.89376770538200001</v>
       </c>
       <c r="O8" s="13">
-        <v>0.46544428772899998</v>
+        <v>0.71288515406200004</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -920,13 +920,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -941,27 +941,27 @@
         <v>21560</v>
       </c>
       <c r="L9" s="13">
-        <v>0.70037105751399997</v>
+        <v>0.66512059369200005</v>
       </c>
       <c r="M9" s="14">
-        <v>0.59670781893000002</v>
+        <v>0.78613569321499999</v>
       </c>
       <c r="N9" s="13">
-        <v>0.78146611341600003</v>
+        <v>0.77470355731200002</v>
       </c>
       <c r="O9" s="13">
-        <v>0.72443181818199998</v>
+        <v>0.43532684283700002</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -988,16 +988,392 @@
         <v>21560</v>
       </c>
       <c r="L10" s="13">
+        <v>0.68274582560300001</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.70958904109599996</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0.72739726027399998</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.60775862068999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>21560</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.72124304267200001</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.63034482758599997</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0.83862068965500003</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.69405099150100003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>21560</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0.69480519480500003</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0.71172413793099998</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.82758620689700002</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.54107648725199997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>21560</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.69526901669800001</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.79554937413100002</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.82005494505499998</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.46544428772899998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>21560</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.63497217068599998</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.81955922864999997</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.83380681818199998</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.25757575757599999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>21560</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0.70037105751399997</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.59670781893000002</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0.78146611341600003</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.72443181818199998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>21560</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.74257884972199995</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.70516304347799996</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0.86567164179099998</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.65007320644199995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>21560</v>
+      </c>
+      <c r="L17" s="13">
         <v>0.56771799628899999</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M17" s="14">
         <v>0.35119887165000002</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N17" s="13">
         <v>0.71637816244999997</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O17" s="13">
         <v>0.62787356321800003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>21560</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0.51762523191099996</v>
+      </c>
+      <c r="M18" s="14">
+        <v>6.6390041493799998E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.70182841068900004</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.78808864265900003</v>
       </c>
     </row>
   </sheetData>
